--- a/Exercises/Exercise 4/Book1.xlsx
+++ b/Exercises/Exercise 4/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/systemallica/Documents/KU Leuven/ANNs and DL/Exercises/Exercise 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EEFBC0-6449-9E49-B144-7A18268F8054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D81A34-F51A-1147-A6BC-3E41F947264E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{AA5088E6-9A17-C243-A862-DBA2C6C7920C}"/>
   </bookViews>
@@ -885,6 +885,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88801685807864261"/>
+          <c:y val="0.3466780370865194"/>
+          <c:w val="8.5646968412449606E-2"/>
+          <c:h val="0.24669187109734028"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1848,7 +1858,7 @@
   <dimension ref="C7:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
